--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efemp1-Egfr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efemp1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Egfr</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.732278284537725</v>
+        <v>1.513507666666667</v>
       </c>
       <c r="H2">
-        <v>0.732278284537725</v>
+        <v>4.540523</v>
       </c>
       <c r="I2">
-        <v>0.005645375634058266</v>
+        <v>0.009429085521538604</v>
       </c>
       <c r="J2">
-        <v>0.005645375634058266</v>
+        <v>0.00947765464651767</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.897941217831048</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N2">
-        <v>0.897941217831048</v>
+        <v>3.633172</v>
       </c>
       <c r="O2">
-        <v>0.01181103953983894</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P2">
-        <v>0.01181103953983894</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q2">
-        <v>0.6575428546090355</v>
+        <v>1.832944558772889</v>
       </c>
       <c r="R2">
-        <v>0.6575428546090355</v>
+        <v>16.496501028956</v>
       </c>
       <c r="S2">
-        <v>6.66777548311055E-05</v>
+        <v>0.0001390426684890389</v>
       </c>
       <c r="T2">
-        <v>6.66777548311055E-05</v>
+        <v>0.0001514827336283121</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.732278284537725</v>
+        <v>1.513507666666667</v>
       </c>
       <c r="H3">
-        <v>0.732278284537725</v>
+        <v>4.540523</v>
       </c>
       <c r="I3">
-        <v>0.005645375634058266</v>
+        <v>0.009429085521538604</v>
       </c>
       <c r="J3">
-        <v>0.005645375634058266</v>
+        <v>0.00947765464651767</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.7871225945224</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N3">
-        <v>56.7871225945224</v>
+        <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7469475027972082</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P3">
-        <v>0.7469475027972082</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q3">
-        <v>41.58397671735035</v>
+        <v>92.41501927888822</v>
       </c>
       <c r="R3">
-        <v>41.58397671735035</v>
+        <v>831.7351735099941</v>
       </c>
       <c r="S3">
-        <v>0.004216799232212028</v>
+        <v>0.007010376188140192</v>
       </c>
       <c r="T3">
-        <v>0.004216799232212028</v>
+        <v>0.007637590390650618</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.732278284537725</v>
+        <v>1.513507666666667</v>
       </c>
       <c r="H4">
-        <v>0.732278284537725</v>
+        <v>4.540523</v>
       </c>
       <c r="I4">
-        <v>0.005645375634058266</v>
+        <v>0.009429085521538604</v>
       </c>
       <c r="J4">
-        <v>0.005645375634058266</v>
+        <v>0.00947765464651767</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.421752113583795</v>
+        <v>0.132278</v>
       </c>
       <c r="N4">
-        <v>0.421752113583795</v>
+        <v>0.396834</v>
       </c>
       <c r="O4">
-        <v>0.005547502209087931</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P4">
-        <v>0.005547502209087931</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q4">
-        <v>0.3088399142353012</v>
+        <v>0.2002037671313333</v>
       </c>
       <c r="R4">
-        <v>0.3088399142353012</v>
+        <v>1.801833904182</v>
       </c>
       <c r="S4">
-        <v>3.131773380106941E-05</v>
+        <v>1.518696563421144E-05</v>
       </c>
       <c r="T4">
-        <v>3.131773380106941E-05</v>
+        <v>1.654573444820603E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.732278284537725</v>
+        <v>1.513507666666667</v>
       </c>
       <c r="H5">
-        <v>0.732278284537725</v>
+        <v>4.540523</v>
       </c>
       <c r="I5">
-        <v>0.005645375634058266</v>
+        <v>0.009429085521538604</v>
       </c>
       <c r="J5">
-        <v>0.005645375634058266</v>
+        <v>0.00947765464651767</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.918771390257</v>
+        <v>0.655122</v>
       </c>
       <c r="N5">
-        <v>17.918771390257</v>
+        <v>1.965366</v>
       </c>
       <c r="O5">
-        <v>0.2356939554538648</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P5">
-        <v>0.2356939554538648</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q5">
-        <v>13.12152717468106</v>
+        <v>0.991532169602</v>
       </c>
       <c r="R5">
-        <v>13.12152717468106</v>
+        <v>8.923789526418</v>
       </c>
       <c r="S5">
-        <v>0.001330580913214063</v>
+        <v>7.521519300424762E-05</v>
       </c>
       <c r="T5">
-        <v>0.001330580913214063</v>
+        <v>8.194465174237314E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>126.532600116365</v>
+        <v>1.513507666666667</v>
       </c>
       <c r="H6">
-        <v>126.532600116365</v>
+        <v>4.540523</v>
       </c>
       <c r="I6">
-        <v>0.9754816887160677</v>
+        <v>0.009429085521538604</v>
       </c>
       <c r="J6">
-        <v>0.9754816887160677</v>
+        <v>0.00947765464651767</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.897941217831048</v>
+        <v>19.068426</v>
       </c>
       <c r="N6">
-        <v>0.897941217831048</v>
+        <v>38.136852</v>
       </c>
       <c r="O6">
-        <v>0.01181103953983894</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P6">
-        <v>0.01181103953983894</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q6">
-        <v>113.6188370438178</v>
+        <v>28.860208942266</v>
       </c>
       <c r="R6">
-        <v>113.6188370438178</v>
+        <v>173.161253653596</v>
       </c>
       <c r="S6">
-        <v>0.01152145279581433</v>
+        <v>0.002189264506270914</v>
       </c>
       <c r="T6">
-        <v>0.01152145279581433</v>
+        <v>0.001590091136048159</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,55 +841,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>126.532600116365</v>
+        <v>156.5335616666667</v>
       </c>
       <c r="H7">
-        <v>126.532600116365</v>
+        <v>469.600685</v>
       </c>
       <c r="I7">
-        <v>0.9754816887160677</v>
+        <v>0.9751971347437531</v>
       </c>
       <c r="J7">
-        <v>0.9754816887160677</v>
+        <v>0.9802203654068331</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.7871225945224</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N7">
-        <v>56.7871225945224</v>
+        <v>3.633172</v>
       </c>
       <c r="O7">
-        <v>0.7469475027972082</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P7">
-        <v>0.7469475027972082</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q7">
-        <v>7185.422275011699</v>
+        <v>189.5711177692022</v>
       </c>
       <c r="R7">
-        <v>7185.422275011699</v>
+        <v>1706.14005992282</v>
       </c>
       <c r="S7">
-        <v>0.7286336114108704</v>
+        <v>0.01438039899075075</v>
       </c>
       <c r="T7">
-        <v>0.7286336114108704</v>
+        <v>0.0156670047652061</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +903,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>126.532600116365</v>
+        <v>156.5335616666667</v>
       </c>
       <c r="H8">
-        <v>126.532600116365</v>
+        <v>469.600685</v>
       </c>
       <c r="I8">
-        <v>0.9754816887160677</v>
+        <v>0.9751971347437531</v>
       </c>
       <c r="J8">
-        <v>0.9754816887160677</v>
+        <v>0.9802203654068331</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421752113583795</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N8">
-        <v>0.421752113583795</v>
+        <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.005547502209087931</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P8">
-        <v>0.005547502209087931</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q8">
-        <v>53.36539153633009</v>
+        <v>9557.964216380824</v>
       </c>
       <c r="R8">
-        <v>53.36539153633009</v>
+        <v>86021.67794742742</v>
       </c>
       <c r="S8">
-        <v>0.005411486823077211</v>
+        <v>0.7250436700922609</v>
       </c>
       <c r="T8">
-        <v>0.005411486823077211</v>
+        <v>0.7899128975228069</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,60 +965,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>126.532600116365</v>
+        <v>156.5335616666667</v>
       </c>
       <c r="H9">
-        <v>126.532600116365</v>
+        <v>469.600685</v>
       </c>
       <c r="I9">
-        <v>0.9754816887160677</v>
+        <v>0.9751971347437531</v>
       </c>
       <c r="J9">
-        <v>0.9754816887160677</v>
+        <v>0.9802203654068331</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>17.918771390257</v>
+        <v>0.132278</v>
       </c>
       <c r="N9">
-        <v>17.918771390257</v>
+        <v>0.396834</v>
       </c>
       <c r="O9">
-        <v>0.2356939554538648</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P9">
-        <v>0.2356939554538648</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q9">
-        <v>2267.308734899951</v>
+        <v>20.70594647014333</v>
       </c>
       <c r="R9">
-        <v>2267.308734899951</v>
+        <v>186.35351823129</v>
       </c>
       <c r="S9">
-        <v>0.2299151376863057</v>
+        <v>0.001570702199922157</v>
       </c>
       <c r="T9">
-        <v>0.2299151376863057</v>
+        <v>0.001711231994795677</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,60 +1027,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.44806401517444</v>
+        <v>156.5335616666667</v>
       </c>
       <c r="H10">
-        <v>2.44806401517444</v>
+        <v>469.600685</v>
       </c>
       <c r="I10">
-        <v>0.01887293564987403</v>
+        <v>0.9751971347437531</v>
       </c>
       <c r="J10">
-        <v>0.01887293564987403</v>
+        <v>0.9802203654068331</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.897941217831048</v>
+        <v>0.655122</v>
       </c>
       <c r="N10">
-        <v>0.897941217831048</v>
+        <v>1.965366</v>
       </c>
       <c r="O10">
-        <v>0.01181103953983894</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P10">
-        <v>0.01181103953983894</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q10">
-        <v>2.198217583114102</v>
+        <v>102.54857998619</v>
       </c>
       <c r="R10">
-        <v>2.198217583114102</v>
+        <v>922.93721987571</v>
       </c>
       <c r="S10">
-        <v>0.000222908989193498</v>
+        <v>0.007779083193103942</v>
       </c>
       <c r="T10">
-        <v>0.000222908989193498</v>
+        <v>0.008475073155736656</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1086,55 +1089,55 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.44806401517444</v>
+        <v>156.5335616666667</v>
       </c>
       <c r="H11">
-        <v>2.44806401517444</v>
+        <v>469.600685</v>
       </c>
       <c r="I11">
-        <v>0.01887293564987403</v>
+        <v>0.9751971347437531</v>
       </c>
       <c r="J11">
-        <v>0.01887293564987403</v>
+        <v>0.9802203654068331</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.7871225945224</v>
+        <v>19.068426</v>
       </c>
       <c r="N11">
-        <v>56.7871225945224</v>
+        <v>38.136852</v>
       </c>
       <c r="O11">
-        <v>0.7469475027972082</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P11">
-        <v>0.7469475027972082</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q11">
-        <v>139.0185113489497</v>
+        <v>2984.848637157269</v>
       </c>
       <c r="R11">
-        <v>139.0185113489497</v>
+        <v>17909.09182294362</v>
       </c>
       <c r="S11">
-        <v>0.01409709215412581</v>
+        <v>0.2264232802677154</v>
       </c>
       <c r="T11">
-        <v>0.01409709215412581</v>
+        <v>0.1644541579682877</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,55 +1151,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.44806401517444</v>
+        <v>2.467719</v>
       </c>
       <c r="H12">
-        <v>2.44806401517444</v>
+        <v>4.935438</v>
       </c>
       <c r="I12">
-        <v>0.01887293564987403</v>
+        <v>0.01537377973470835</v>
       </c>
       <c r="J12">
-        <v>0.01887293564987403</v>
+        <v>0.01030197994664929</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.421752113583795</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N12">
-        <v>0.421752113583795</v>
+        <v>3.633172</v>
       </c>
       <c r="O12">
-        <v>0.005547502209087931</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P12">
-        <v>0.005547502209087931</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q12">
-        <v>1.032476172588252</v>
+        <v>2.988549191556</v>
       </c>
       <c r="R12">
-        <v>1.032476172588252</v>
+        <v>17.931295149336</v>
       </c>
       <c r="S12">
-        <v>0.0001046976522096505</v>
+        <v>0.00022670399522771</v>
       </c>
       <c r="T12">
-        <v>0.0001046976522096505</v>
+        <v>0.0001646580448756783</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,55 +1213,241 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.467719</v>
+      </c>
+      <c r="H13">
+        <v>4.935438</v>
+      </c>
+      <c r="I13">
+        <v>0.01537377973470835</v>
+      </c>
+      <c r="J13">
+        <v>0.01030197994664929</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>61.06015933333333</v>
+      </c>
+      <c r="N13">
+        <v>183.180478</v>
+      </c>
+      <c r="O13">
+        <v>0.7434842087418319</v>
+      </c>
+      <c r="P13">
+        <v>0.8058523627949308</v>
+      </c>
+      <c r="Q13">
+        <v>150.679315329894</v>
+      </c>
+      <c r="R13">
+        <v>904.0758919793639</v>
+      </c>
+      <c r="S13">
+        <v>0.01143016246143085</v>
+      </c>
+      <c r="T13">
+        <v>0.008301874881473324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.44806401517444</v>
-      </c>
-      <c r="H13">
-        <v>2.44806401517444</v>
-      </c>
-      <c r="I13">
-        <v>0.01887293564987403</v>
-      </c>
-      <c r="J13">
-        <v>0.01887293564987403</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>17.918771390257</v>
-      </c>
-      <c r="N13">
-        <v>17.918771390257</v>
-      </c>
-      <c r="O13">
-        <v>0.2356939554538648</v>
-      </c>
-      <c r="P13">
-        <v>0.2356939554538648</v>
-      </c>
-      <c r="Q13">
-        <v>43.86629943662543</v>
-      </c>
-      <c r="R13">
-        <v>43.86629943662543</v>
-      </c>
-      <c r="S13">
-        <v>0.004448236854345067</v>
-      </c>
-      <c r="T13">
-        <v>0.004448236854345067</v>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.467719</v>
+      </c>
+      <c r="H14">
+        <v>4.935438</v>
+      </c>
+      <c r="I14">
+        <v>0.01537377973470835</v>
+      </c>
+      <c r="J14">
+        <v>0.01030197994664929</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.132278</v>
+      </c>
+      <c r="N14">
+        <v>0.396834</v>
+      </c>
+      <c r="O14">
+        <v>0.001610650958623747</v>
+      </c>
+      <c r="P14">
+        <v>0.001745762539921768</v>
+      </c>
+      <c r="Q14">
+        <v>0.326424933882</v>
+      </c>
+      <c r="R14">
+        <v>1.958549603292</v>
+      </c>
+      <c r="S14">
+        <v>2.476179306737833E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.798481067788558E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.467719</v>
+      </c>
+      <c r="H15">
+        <v>4.935438</v>
+      </c>
+      <c r="I15">
+        <v>0.01537377973470835</v>
+      </c>
+      <c r="J15">
+        <v>0.01030197994664929</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.655122</v>
+      </c>
+      <c r="N15">
+        <v>1.965366</v>
+      </c>
+      <c r="O15">
+        <v>0.007976934012575832</v>
+      </c>
+      <c r="P15">
+        <v>0.008646089649666828</v>
+      </c>
+      <c r="Q15">
+        <v>1.616657006718</v>
+      </c>
+      <c r="R15">
+        <v>9.699942040307999</v>
+      </c>
+      <c r="S15">
+        <v>0.0001226356264676441</v>
+      </c>
+      <c r="T15">
+        <v>8.907184218779963E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.467719</v>
+      </c>
+      <c r="H16">
+        <v>4.935438</v>
+      </c>
+      <c r="I16">
+        <v>0.01537377973470835</v>
+      </c>
+      <c r="J16">
+        <v>0.01030197994664929</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>19.068426</v>
+      </c>
+      <c r="N16">
+        <v>38.136852</v>
+      </c>
+      <c r="O16">
+        <v>0.232182060632501</v>
+      </c>
+      <c r="P16">
+        <v>0.1677726394717705</v>
+      </c>
+      <c r="Q16">
+        <v>47.05551714029399</v>
+      </c>
+      <c r="R16">
+        <v>188.222068561176</v>
+      </c>
+      <c r="S16">
+        <v>0.003569515858514769</v>
+      </c>
+      <c r="T16">
+        <v>0.0017283903674346</v>
       </c>
     </row>
   </sheetData>
